--- a/output_v2.xlsx
+++ b/output_v2.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="595">
   <si>
     <t>점포코드</t>
   </si>
   <si>
-    <t>구주소</t>
-  </si>
-  <si>
     <t>도로명</t>
   </si>
   <si>
@@ -31,22 +28,1777 @@
     <t>경도</t>
   </si>
   <si>
-    <t>V8M62</t>
-  </si>
-  <si>
-    <t>V8X32</t>
-  </si>
-  <si>
-    <t>VQ998</t>
-  </si>
-  <si>
-    <t>충남 아산시 탕정면 매곡중앙로 70</t>
-  </si>
-  <si>
-    <t>충남 아산시 탕정면 매곡중앙5로 36</t>
-  </si>
-  <si>
-    <t>대전 서구 한밭대로 지하 744 정부청사역</t>
+    <t>GS25주월내안애점</t>
+  </si>
+  <si>
+    <t>GS25화순공간점</t>
+  </si>
+  <si>
+    <t>GS25화순동면점</t>
+  </si>
+  <si>
+    <t>GS25화순중앙점</t>
+  </si>
+  <si>
+    <t>GS25송암공단점</t>
+  </si>
+  <si>
+    <t>GS25백운중앙점</t>
+  </si>
+  <si>
+    <t>GS25봉선라인점</t>
+  </si>
+  <si>
+    <t>GS25대불공단점</t>
+  </si>
+  <si>
+    <t>GS25영암학산점</t>
+  </si>
+  <si>
+    <t>GS25영암삼호점</t>
+  </si>
+  <si>
+    <t>GS25영암무등점</t>
+  </si>
+  <si>
+    <t>GS25세한대학점</t>
+  </si>
+  <si>
+    <t>GS25영암역리점</t>
+  </si>
+  <si>
+    <t>GS25영암시종점</t>
+  </si>
+  <si>
+    <t>GS25봉선태산점</t>
+  </si>
+  <si>
+    <t>GS25봉선플러스점</t>
+  </si>
+  <si>
+    <t>GS25광주대성점</t>
+  </si>
+  <si>
+    <t>GS25주월덕산점</t>
+  </si>
+  <si>
+    <t>GS25진월한신점</t>
+  </si>
+  <si>
+    <t>GS25주월호반점</t>
+  </si>
+  <si>
+    <t>GS25광주노대점</t>
+  </si>
+  <si>
+    <t>GS25광주기독병원점</t>
+  </si>
+  <si>
+    <t>GS25대촌오네뜨점</t>
+  </si>
+  <si>
+    <t>GS25광주유보라점</t>
+  </si>
+  <si>
+    <t>GS25건산주공점</t>
+  </si>
+  <si>
+    <t>GS25장흥코아루점</t>
+  </si>
+  <si>
+    <t>GS25장흥병원점</t>
+  </si>
+  <si>
+    <t>GS25뉴장흥고점</t>
+  </si>
+  <si>
+    <t>GS25송하삼익점</t>
+  </si>
+  <si>
+    <t>GS25봉선삼익점</t>
+  </si>
+  <si>
+    <t>GS25송원대학교점</t>
+  </si>
+  <si>
+    <t>GS25광주남구청점</t>
+  </si>
+  <si>
+    <t>GS25월산중앙점</t>
+  </si>
+  <si>
+    <t>GS25진월광복마을점</t>
+  </si>
+  <si>
+    <t>GS25효천행복점</t>
+  </si>
+  <si>
+    <t>GS25월산라인점</t>
+  </si>
+  <si>
+    <t>GS25강진마량점</t>
+  </si>
+  <si>
+    <t>GS25강진중흥점</t>
+  </si>
+  <si>
+    <t>GS25강진서성점</t>
+  </si>
+  <si>
+    <t>GS25강진칠량점</t>
+  </si>
+  <si>
+    <t>GS25강진후레쉬점</t>
+  </si>
+  <si>
+    <t>GS25강진스타점</t>
+  </si>
+  <si>
+    <t>GS25월산타운점</t>
+  </si>
+  <si>
+    <t>GS25진월삼익점</t>
+  </si>
+  <si>
+    <t>GS25봉선중앙점</t>
+  </si>
+  <si>
+    <t>GS25양림주공점</t>
+  </si>
+  <si>
+    <t>GS25장흥관산점</t>
+  </si>
+  <si>
+    <t>GS25장흥용산점</t>
+  </si>
+  <si>
+    <t>GS25보성센트럴점</t>
+  </si>
+  <si>
+    <t>GS25보성해그린점</t>
+  </si>
+  <si>
+    <t>GS25보성군청점</t>
+  </si>
+  <si>
+    <t>GS25보성조성점</t>
+  </si>
+  <si>
+    <t>GS25벌교장좌점</t>
+  </si>
+  <si>
+    <t>GS25장흥대덕점</t>
+  </si>
+  <si>
+    <t>GS25장흥회진점</t>
+  </si>
+  <si>
+    <t>GS25백운사랑점</t>
+  </si>
+  <si>
+    <t>GS25봉선포스코점</t>
+  </si>
+  <si>
+    <t>GS25주월에이스점</t>
+  </si>
+  <si>
+    <t>GS25HR아팰리스점</t>
+  </si>
+  <si>
+    <t>GS25주월클래스점</t>
+  </si>
+  <si>
+    <t>GS25봉선오네뜨점</t>
+  </si>
+  <si>
+    <t>GS25백운헤리시티점</t>
+  </si>
+  <si>
+    <t>GS25삼호LH점</t>
+  </si>
+  <si>
+    <t>GS25삼호중앙점</t>
+  </si>
+  <si>
+    <t>GS25삼호현대점</t>
+  </si>
+  <si>
+    <t>GS25목포3함대점</t>
+  </si>
+  <si>
+    <t>GS25영암중앙점</t>
+  </si>
+  <si>
+    <t>GS25삼호퀸스빌점</t>
+  </si>
+  <si>
+    <t>GS25삼호중흥점</t>
+  </si>
+  <si>
+    <t>GS25신북GS점</t>
+  </si>
+  <si>
+    <t>GS25광주천변로점</t>
+  </si>
+  <si>
+    <t>GS25화순칠충로점</t>
+  </si>
+  <si>
+    <t>GS25화순광덕점</t>
+  </si>
+  <si>
+    <t>GS25화순대광점</t>
+  </si>
+  <si>
+    <t>GS25광주대기숙사위성점</t>
+  </si>
+  <si>
+    <t>GS25광주대기숙사점</t>
+  </si>
+  <si>
+    <t>GS25화순산이고운점</t>
+  </si>
+  <si>
+    <t>GS25광주대학생회관점</t>
+  </si>
+  <si>
+    <t>GS25화순사랑점</t>
+  </si>
+  <si>
+    <t>GS25광주대호심관점</t>
+  </si>
+  <si>
+    <t>GS25광주대정문점</t>
+  </si>
+  <si>
+    <t>GS25백운주공점</t>
+  </si>
+  <si>
+    <t>GS25광주신우점</t>
+  </si>
+  <si>
+    <t>GS25서동예다음점</t>
+  </si>
+  <si>
+    <t>GS25사직스카이점</t>
+  </si>
+  <si>
+    <t>GS25진월하늘점</t>
+  </si>
+  <si>
+    <t>GS25방림모아점</t>
+  </si>
+  <si>
+    <t>GS25봉선무등3차점</t>
+  </si>
+  <si>
+    <t>GS25전남고흥점</t>
+  </si>
+  <si>
+    <t>GS25고흥도양점</t>
+  </si>
+  <si>
+    <t>GS25고흥금산점</t>
+  </si>
+  <si>
+    <t>GS25고흥녹동중앙점</t>
+  </si>
+  <si>
+    <t>GS25고흥빅리치점</t>
+  </si>
+  <si>
+    <t>GS25고흥도덕점</t>
+  </si>
+  <si>
+    <t>GS25김대중센터점</t>
+  </si>
+  <si>
+    <t>GS25담양매화점</t>
+  </si>
+  <si>
+    <t>GS25담양터미널점</t>
+  </si>
+  <si>
+    <t>GS25쌍촌GS점</t>
+  </si>
+  <si>
+    <t>GS25내방솔뫼점</t>
+  </si>
+  <si>
+    <t>GS25동림호반점</t>
+  </si>
+  <si>
+    <t>GS25상무중앙점</t>
+  </si>
+  <si>
+    <t>GS25상무센트럴점</t>
+  </si>
+  <si>
+    <t>GS25상무S클래스점</t>
+  </si>
+  <si>
+    <t>GS25화정보훈점</t>
+  </si>
+  <si>
+    <t>GS25전북순창점</t>
+  </si>
+  <si>
+    <t>GS25순창베스트점</t>
+  </si>
+  <si>
+    <t>GS25뉴순창중앙로점</t>
+  </si>
+  <si>
+    <t>GS25순창민속마을점</t>
+  </si>
+  <si>
+    <t>GS25순창남계점</t>
+  </si>
+  <si>
+    <t>GS25화정현대점</t>
+  </si>
+  <si>
+    <t>GS25광주광천점</t>
+  </si>
+  <si>
+    <t>GS25상무원룸점</t>
+  </si>
+  <si>
+    <t>GS25농성대남점</t>
+  </si>
+  <si>
+    <t>GS25담양센터점</t>
+  </si>
+  <si>
+    <t>GS25전남도립대점</t>
+  </si>
+  <si>
+    <t>GS25쌍촌시영점</t>
+  </si>
+  <si>
+    <t>GS25화정금화점</t>
+  </si>
+  <si>
+    <t>GS25담양수북점</t>
+  </si>
+  <si>
+    <t>GS25화정타운점</t>
+  </si>
+  <si>
+    <t>GS25담양백동점</t>
+  </si>
+  <si>
+    <t>GS25용봉현대점</t>
+  </si>
+  <si>
+    <t>GS25신안행복점</t>
+  </si>
+  <si>
+    <t>GS25오치대웅점</t>
+  </si>
+  <si>
+    <t>GS25전대중앙점</t>
+  </si>
+  <si>
+    <t>GS25용봉호반점</t>
+  </si>
+  <si>
+    <t>GS25두암타운점</t>
+  </si>
+  <si>
+    <t>GS25풍향금호점</t>
+  </si>
+  <si>
+    <t>GS25광주비엔날레점</t>
+  </si>
+  <si>
+    <t>GS25광주역점</t>
+  </si>
+  <si>
+    <t>GS25광주금남로점</t>
+  </si>
+  <si>
+    <t>GS25광주동명점</t>
+  </si>
+  <si>
+    <t>GS25전대예대점</t>
+  </si>
+  <si>
+    <t>GS25오치한우리점</t>
+  </si>
+  <si>
+    <t>GS25무등산자이점</t>
+  </si>
+  <si>
+    <t>GS25도통중앙점</t>
+  </si>
+  <si>
+    <t>GS25뉴남원쌍교점</t>
+  </si>
+  <si>
+    <t>GS25남원노암점</t>
+  </si>
+  <si>
+    <t>GS25남원해피점</t>
+  </si>
+  <si>
+    <t>GS25남원IC점</t>
+  </si>
+  <si>
+    <t>GS25남원의료원점</t>
+  </si>
+  <si>
+    <t>GS25남원시청점</t>
+  </si>
+  <si>
+    <t>GS25남원동충점</t>
+  </si>
+  <si>
+    <t>GS25지리산IC점</t>
+  </si>
+  <si>
+    <t>GS25도통부영점</t>
+  </si>
+  <si>
+    <t>GS25도통주공점</t>
+  </si>
+  <si>
+    <t>GS25남원운봉점</t>
+  </si>
+  <si>
+    <t>GS25도통마을점</t>
+  </si>
+  <si>
+    <t>GS25남원대로점</t>
+  </si>
+  <si>
+    <t>GS25남원더라우점</t>
+  </si>
+  <si>
+    <t>GS25남원산내점</t>
+  </si>
+  <si>
+    <t>광주 남구 대남대로223번길 10</t>
+  </si>
+  <si>
+    <t>전남 화순군 화순읍 진각로 181-17</t>
+  </si>
+  <si>
+    <t>전남 화순군 동면 충의로 542-1</t>
+  </si>
+  <si>
+    <t>전남 화순군 화순읍 만연로 71-1</t>
+  </si>
+  <si>
+    <t>광주 남구 송암로 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 백운로 41 </t>
+  </si>
+  <si>
+    <t>광주 남구 봉선중앙로 93</t>
+  </si>
+  <si>
+    <t>전남 영암군 삼호읍 나불로 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 학산면 독천로 194 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 삼호읍 대불주거1로19길 52 </t>
+  </si>
+  <si>
+    <t>전남 영암군 영암읍 성밖로 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 삼호읍 녹색로 1117-13 </t>
+  </si>
+  <si>
+    <t>전남 영암군 영암읍 중앙로 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 시종면 쌍구길 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 봉선중앙로 123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 봉선로 205 </t>
+  </si>
+  <si>
+    <t>광주 남구 금당로 13</t>
+  </si>
+  <si>
+    <t>광주 남구 봉선로 84</t>
+  </si>
+  <si>
+    <t>광주 남구 광복마을4길 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 회서로22번길 19 </t>
+  </si>
+  <si>
+    <t>광주 남구 노대실로 33</t>
+  </si>
+  <si>
+    <t>광주 남구 양림로 47</t>
+  </si>
+  <si>
+    <t>광주 남구 도시첨단산업로 34</t>
+  </si>
+  <si>
+    <t>광주 남구 구성로8번길 6</t>
+  </si>
+  <si>
+    <t>전남 장흥군 장흥읍 북부로 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 장흥군 장흥읍 장흥로 76-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 장흥군 장흥읍 흥성로 72 </t>
+  </si>
+  <si>
+    <t>전남 장흥군 장흥읍 흥성로 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 서문대로556번길 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 봉선중앙로 24 </t>
+  </si>
+  <si>
+    <t>광주 남구 송암로 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 봉선로9번길 8 </t>
+  </si>
+  <si>
+    <t>광주 남구 금화로441번길 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 광복마을5길 17 </t>
+  </si>
+  <si>
+    <t>광주 남구 효천로 176</t>
+  </si>
+  <si>
+    <t>광주 남구 수박등로 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 강진군 마량면 미항로 149-2 </t>
+  </si>
+  <si>
+    <t>전남 강진군 군동면 백금포길 7</t>
+  </si>
+  <si>
+    <t>전남 강진군 강진읍 탐진로 85</t>
+  </si>
+  <si>
+    <t>전남 강진군 칠량면 칠량로 77</t>
+  </si>
+  <si>
+    <t>전남 강진군 강진읍 탐진로 56</t>
+  </si>
+  <si>
+    <t>전남 강진군 강진읍 영랑로 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 대남대로397번길 8 </t>
+  </si>
+  <si>
+    <t>광주 남구 서문대로654번길 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 봉선1로 74-2 </t>
+  </si>
+  <si>
+    <t>광주 남구 정율성로 7</t>
+  </si>
+  <si>
+    <t>전남 장흥군 관산읍 관산로 88-5</t>
+  </si>
+  <si>
+    <t>전남 장흥군 용산면 용안로 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 보성군 보성읍 중앙로 51-1 </t>
+  </si>
+  <si>
+    <t>전남 보성군 보성읍 현충로 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 보성군 보성읍 송재로 191 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 보성군 조성면 조성로 117 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 보성군 벌교읍 채동선로 133-1 </t>
+  </si>
+  <si>
+    <t>전남 장흥군 대덕읍 대대로 914</t>
+  </si>
+  <si>
+    <t>전남 장흥군 회진면 가학회진로 1610-1</t>
+  </si>
+  <si>
+    <t>광주 남구 독립로 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 효사랑길 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 회재로1224번길 8-1 </t>
+  </si>
+  <si>
+    <t>광주 남구 제석로 104</t>
+  </si>
+  <si>
+    <t>광주 남구 서문대로812번길 4-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 봉선로52번나길 10-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 독립로10번길 12 </t>
+  </si>
+  <si>
+    <t>전남 영암군 삼호읍 삼호중앙로 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 삼호읍 대불주거5로1길 3 </t>
+  </si>
+  <si>
+    <t>전남 영암군 삼호읍 신항로 135-27</t>
+  </si>
+  <si>
+    <t>전남 영암군 삼호읍 용당로 291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 영암읍 남문로 1 </t>
+  </si>
+  <si>
+    <t>전남 영암군 삼호읍 삼호중앙로 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 삼호읍 대불주거2로2길 15-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 영암군 신북면 예향로 2532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 천변좌로 382 </t>
+  </si>
+  <si>
+    <t>전남 화순군 화순읍 칠충로 83-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 화순군 화순읍 충의로 115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 화순군 화순읍 칠충로 44 </t>
+  </si>
+  <si>
+    <t>광주 남구 효덕로 277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 화순군 화순읍 쌍충로 12-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 화순군 화순읍 광덕로 169 </t>
+  </si>
+  <si>
+    <t>광주 남구 효덕로 276</t>
+  </si>
+  <si>
+    <t>광주 남구 독립로80번길 10</t>
+  </si>
+  <si>
+    <t>광주 남구 대남대로294번길 5</t>
+  </si>
+  <si>
+    <t>광주 남구 제중로 111</t>
+  </si>
+  <si>
+    <t>광주 남구 제중로125번길 1</t>
+  </si>
+  <si>
+    <t>광주 남구 서문대로663번안길 12</t>
+  </si>
+  <si>
+    <t>광주 남구 봉선1로 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 남구 용대로 92 </t>
+  </si>
+  <si>
+    <t>전남 고흥군 고흥읍 고흥로 1625-2</t>
+  </si>
+  <si>
+    <t>전남 고흥군 도양읍 비봉로 169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 고흥군 금산면 거금중앙길 98 </t>
+  </si>
+  <si>
+    <t>전남 고흥군 도양읍 우주항공로 54</t>
+  </si>
+  <si>
+    <t>전남 고흥군 고흥읍 터미널길 13</t>
+  </si>
+  <si>
+    <t>전남 고흥군 도덕면 고흥로 477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 상무화원로11번길 7 </t>
+  </si>
+  <si>
+    <t>전남 담양군 담양읍 매화길 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 담양군 담양읍 중앙로 20-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 월드컵4강로210번길 3 </t>
+  </si>
+  <si>
+    <t>광주 서구 내방로278번길 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 하남대로680번길 3 </t>
+  </si>
+  <si>
+    <t>광주 서구 상무번영로 50</t>
+  </si>
+  <si>
+    <t>광주 서구 시청로 77</t>
+  </si>
+  <si>
+    <t>광주 서구 시청로 97</t>
+  </si>
+  <si>
+    <t>광주 서구 상무대로1080번길 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 순창군 순창읍 장류로 333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 순창군 순창읍 장류로 418 </t>
+  </si>
+  <si>
+    <t>전북 순창군 순창읍 순창로 217-1</t>
+  </si>
+  <si>
+    <t>전북 순창군 순창읍 장류로 67</t>
+  </si>
+  <si>
+    <t>전북 순창군 순창읍 남계로 85-4</t>
+  </si>
+  <si>
+    <t>광주 서구 월드컵4강로 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 죽봉대로 119 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 상무공원로 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 화정로279번길 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 담양군 담양읍 중앙로 61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 담양군 담양읍 죽녹원로 153 </t>
+  </si>
+  <si>
+    <t>광주 서구 화정로 87</t>
+  </si>
+  <si>
+    <t>광주 서구 금화로383번길 10</t>
+  </si>
+  <si>
+    <t>전남 담양군 수북면 추성1로 717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 서구 화운로175번길 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전남 담양군 담양읍 무정로 47 </t>
+  </si>
+  <si>
+    <t>광주 북구 저불로 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 북구 자산로 67 </t>
+  </si>
+  <si>
+    <t>광주 북구 설죽로 324</t>
+  </si>
+  <si>
+    <t>광주 북구 우치로110번길 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 북구 반룡로27번길 9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 동구 밤실로 152-1 </t>
+  </si>
+  <si>
+    <t>광주 북구 군왕로 17</t>
+  </si>
+  <si>
+    <t>광주 북구 비엔날레로 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 북구 무등로 237 </t>
+  </si>
+  <si>
+    <t>광주 동구 금남로 185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 동구 동계로 8-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">광주 북구 용주로40번길 42 </t>
+  </si>
+  <si>
+    <t>광주 북구 우치로231번길 50</t>
+  </si>
+  <si>
+    <t>광주 북구 서양로 155</t>
+  </si>
+  <si>
+    <t>전북 남원시 큰들2길 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 남문로 467 </t>
+  </si>
+  <si>
+    <t>전북 남원시 노송로 1257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 요천로 1814 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 충정로 304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 충정로 365 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 시청로 55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 용성로 33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 인월면 천왕봉로 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 오들1길 45 </t>
+  </si>
+  <si>
+    <t>전북 남원시 용성로 225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 운봉읍 운봉로 692 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 큰들1길 14-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전북 남원시 요천로 1331 </t>
+  </si>
+  <si>
+    <t>전북 남원시 여수길 45-1</t>
+  </si>
+  <si>
+    <t>전북 남원시 산내면 대정길 10</t>
+  </si>
+  <si>
+    <t>35.1337342</t>
+  </si>
+  <si>
+    <t>35.0673102</t>
+  </si>
+  <si>
+    <t>35.0266598</t>
+  </si>
+  <si>
+    <t>35.0622763</t>
+  </si>
+  <si>
+    <t>35.1091429</t>
+  </si>
+  <si>
+    <t>35.1372498</t>
+  </si>
+  <si>
+    <t>35.1293353</t>
+  </si>
+  <si>
+    <t>34.7663426</t>
+  </si>
+  <si>
+    <t>34.7256360</t>
+  </si>
+  <si>
+    <t>34.7528650</t>
+  </si>
+  <si>
+    <t>34.7959012</t>
+  </si>
+  <si>
+    <t>34.7456784</t>
+  </si>
+  <si>
+    <t>34.8039724</t>
+  </si>
+  <si>
+    <t>34.8687716</t>
+  </si>
+  <si>
+    <t>35.1319371</t>
+  </si>
+  <si>
+    <t>35.1228074</t>
+  </si>
+  <si>
+    <t>35.1181472</t>
+  </si>
+  <si>
+    <t>35.1261258</t>
+  </si>
+  <si>
+    <t>35.1205235</t>
+  </si>
+  <si>
+    <t>35.1296882</t>
+  </si>
+  <si>
+    <t>35.1068900</t>
+  </si>
+  <si>
+    <t>35.1371039</t>
+  </si>
+  <si>
+    <t>35.0893415</t>
+  </si>
+  <si>
+    <t>35.1516793</t>
+  </si>
+  <si>
+    <t>34.6848199</t>
+  </si>
+  <si>
+    <t>34.6838607</t>
+  </si>
+  <si>
+    <t>34.6770865</t>
+  </si>
+  <si>
+    <t>34.6801161</t>
+  </si>
+  <si>
+    <t>35.1087189</t>
+  </si>
+  <si>
+    <t>35.1234235</t>
+  </si>
+  <si>
+    <t>35.1091923</t>
+  </si>
+  <si>
+    <t>35.1323365</t>
+  </si>
+  <si>
+    <t>35.1457744</t>
+  </si>
+  <si>
+    <t>35.1237338</t>
+  </si>
+  <si>
+    <t>35.1077715</t>
+  </si>
+  <si>
+    <t>35.1426455</t>
+  </si>
+  <si>
+    <t>34.4495331</t>
+  </si>
+  <si>
+    <t>34.6422530</t>
+  </si>
+  <si>
+    <t>34.6399701</t>
+  </si>
+  <si>
+    <t>34.5718140</t>
+  </si>
+  <si>
+    <t>34.6378125</t>
+  </si>
+  <si>
+    <t>34.6369813</t>
+  </si>
+  <si>
+    <t>35.1461201</t>
+  </si>
+  <si>
+    <t>35.1167363</t>
+  </si>
+  <si>
+    <t>35.1278504</t>
+  </si>
+  <si>
+    <t>35.1361929</t>
+  </si>
+  <si>
+    <t>34.5632556</t>
+  </si>
+  <si>
+    <t>34.6152994</t>
+  </si>
+  <si>
+    <t>34.7676906</t>
+  </si>
+  <si>
+    <t>34.7638388</t>
+  </si>
+  <si>
+    <t>34.7730155</t>
+  </si>
+  <si>
+    <t>34.8080731</t>
+  </si>
+  <si>
+    <t>34.8358962</t>
+  </si>
+  <si>
+    <t>34.4985670</t>
+  </si>
+  <si>
+    <t>34.4827864</t>
+  </si>
+  <si>
+    <t>35.1351274</t>
+  </si>
+  <si>
+    <t>35.1214777</t>
+  </si>
+  <si>
+    <t>35.1327391</t>
+  </si>
+  <si>
+    <t>35.1237129</t>
+  </si>
+  <si>
+    <t>35.1307228</t>
+  </si>
+  <si>
+    <t>35.1291412</t>
+  </si>
+  <si>
+    <t>35.1344679</t>
+  </si>
+  <si>
+    <t>34.7445593</t>
+  </si>
+  <si>
+    <t>34.7543084</t>
+  </si>
+  <si>
+    <t>34.7480046</t>
+  </si>
+  <si>
+    <t>34.7635707</t>
+  </si>
+  <si>
+    <t>34.7988494</t>
+  </si>
+  <si>
+    <t>34.7455554</t>
+  </si>
+  <si>
+    <t>34.7544856</t>
+  </si>
+  <si>
+    <t>34.8870546</t>
+  </si>
+  <si>
+    <t>35.1447551</t>
+  </si>
+  <si>
+    <t>35.0583250</t>
+  </si>
+  <si>
+    <t>35.0558689</t>
+  </si>
+  <si>
+    <t>35.0544166</t>
+  </si>
+  <si>
+    <t>35.1072019</t>
+  </si>
+  <si>
+    <t>35.0528867</t>
+  </si>
+  <si>
+    <t>35.0600844</t>
+  </si>
+  <si>
+    <t>35.1081976</t>
+  </si>
+  <si>
+    <t>35.1407352</t>
+  </si>
+  <si>
+    <t>35.1388794</t>
+  </si>
+  <si>
+    <t>35.1412951</t>
+  </si>
+  <si>
+    <t>35.1423892</t>
+  </si>
+  <si>
+    <t>35.1169610</t>
+  </si>
+  <si>
+    <t>35.1289050</t>
+  </si>
+  <si>
+    <t>35.1244823</t>
+  </si>
+  <si>
+    <t>34.5998205</t>
+  </si>
+  <si>
+    <t>34.5262941</t>
+  </si>
+  <si>
+    <t>34.4602216</t>
+  </si>
+  <si>
+    <t>34.5288674</t>
+  </si>
+  <si>
+    <t>34.6064799</t>
+  </si>
+  <si>
+    <t>34.5658803</t>
+  </si>
+  <si>
+    <t>35.1451950</t>
+  </si>
+  <si>
+    <t>35.2984962</t>
+  </si>
+  <si>
+    <t>35.3150187</t>
+  </si>
+  <si>
+    <t>35.1549549</t>
+  </si>
+  <si>
+    <t>35.1566739</t>
+  </si>
+  <si>
+    <t>35.1711637</t>
+  </si>
+  <si>
+    <t>35.1543411</t>
+  </si>
+  <si>
+    <t>35.1555366</t>
+  </si>
+  <si>
+    <t>35.1575470</t>
+  </si>
+  <si>
+    <t>35.1520368</t>
+  </si>
+  <si>
+    <t>35.3770444</t>
+  </si>
+  <si>
+    <t>35.3754658</t>
+  </si>
+  <si>
+    <t>35.3745303</t>
+  </si>
+  <si>
+    <t>35.3694485</t>
+  </si>
+  <si>
+    <t>35.3743976</t>
+  </si>
+  <si>
+    <t>35.1396452</t>
+  </si>
+  <si>
+    <t>35.1640560</t>
+  </si>
+  <si>
+    <t>35.1454154</t>
+  </si>
+  <si>
+    <t>35.1508613</t>
+  </si>
+  <si>
+    <t>35.3186837</t>
+  </si>
+  <si>
+    <t>35.3274101</t>
+  </si>
+  <si>
+    <t>35.1451748</t>
+  </si>
+  <si>
+    <t>35.1427800</t>
+  </si>
+  <si>
+    <t>35.3019574</t>
+  </si>
+  <si>
+    <t>35.1547281</t>
+  </si>
+  <si>
+    <t>35.3080005</t>
+  </si>
+  <si>
+    <t>35.1805053</t>
+  </si>
+  <si>
+    <t>35.1676794</t>
+  </si>
+  <si>
+    <t>35.1882723</t>
+  </si>
+  <si>
+    <t>35.1772842</t>
+  </si>
+  <si>
+    <t>35.1795014</t>
+  </si>
+  <si>
+    <t>35.1610021</t>
+  </si>
+  <si>
+    <t>35.1642556</t>
+  </si>
+  <si>
+    <t>35.1819394</t>
+  </si>
+  <si>
+    <t>35.1645710</t>
+  </si>
+  <si>
+    <t>35.1517634</t>
+  </si>
+  <si>
+    <t>35.1524636</t>
+  </si>
+  <si>
+    <t>35.1814598</t>
+  </si>
+  <si>
+    <t>35.1850129</t>
+  </si>
+  <si>
+    <t>35.1678348</t>
+  </si>
+  <si>
+    <t>35.4156122</t>
+  </si>
+  <si>
+    <t>35.4064732</t>
+  </si>
+  <si>
+    <t>35.3959770</t>
+  </si>
+  <si>
+    <t>35.4242896</t>
+  </si>
+  <si>
+    <t>35.4265239</t>
+  </si>
+  <si>
+    <t>35.4318756</t>
+  </si>
+  <si>
+    <t>35.4152329</t>
+  </si>
+  <si>
+    <t>35.4092967</t>
+  </si>
+  <si>
+    <t>35.4620580</t>
+  </si>
+  <si>
+    <t>35.4189772</t>
+  </si>
+  <si>
+    <t>35.4176362</t>
+  </si>
+  <si>
+    <t>35.4373620</t>
+  </si>
+  <si>
+    <t>35.4146202</t>
+  </si>
+  <si>
+    <t>35.3975134</t>
+  </si>
+  <si>
+    <t>35.3941609</t>
+  </si>
+  <si>
+    <t>35.4184916</t>
+  </si>
+  <si>
+    <t>126.8982951</t>
+  </si>
+  <si>
+    <t>126.9855982</t>
+  </si>
+  <si>
+    <t>127.0171489</t>
+  </si>
+  <si>
+    <t>126.9898840</t>
+  </si>
+  <si>
+    <t>126.8782822</t>
+  </si>
+  <si>
+    <t>126.9071925</t>
+  </si>
+  <si>
+    <t>126.9108452</t>
+  </si>
+  <si>
+    <t>126.4384258</t>
+  </si>
+  <si>
+    <t>126.5703924</t>
+  </si>
+  <si>
+    <t>126.4526531</t>
+  </si>
+  <si>
+    <t>126.6973604</t>
+  </si>
+  <si>
+    <t>126.4843397</t>
+  </si>
+  <si>
+    <t>126.6995971</t>
+  </si>
+  <si>
+    <t>126.6089358</t>
+  </si>
+  <si>
+    <t>126.9105679</t>
+  </si>
+  <si>
+    <t>126.9176867</t>
+  </si>
+  <si>
+    <t>126.8965114</t>
+  </si>
+  <si>
+    <t>126.9056367</t>
+  </si>
+  <si>
+    <t>126.8968703</t>
+  </si>
+  <si>
+    <t>126.8920279</t>
+  </si>
+  <si>
+    <t>126.9071579</t>
+  </si>
+  <si>
+    <t>126.9140168</t>
+  </si>
+  <si>
+    <t>126.8301819</t>
+  </si>
+  <si>
+    <t>126.8964545</t>
+  </si>
+  <si>
+    <t>126.9032830</t>
+  </si>
+  <si>
+    <t>126.9116878</t>
+  </si>
+  <si>
+    <t>126.9105965</t>
+  </si>
+  <si>
+    <t>126.9139897</t>
+  </si>
+  <si>
+    <t>126.8942931</t>
+  </si>
+  <si>
+    <t>126.9128810</t>
+  </si>
+  <si>
+    <t>126.8740705</t>
+  </si>
+  <si>
+    <t>126.9032202</t>
+  </si>
+  <si>
+    <t>126.8912959</t>
+  </si>
+  <si>
+    <t>126.8952327</t>
+  </si>
+  <si>
+    <t>126.8627209</t>
+  </si>
+  <si>
+    <t>126.8955905</t>
+  </si>
+  <si>
+    <t>126.8185187</t>
+  </si>
+  <si>
+    <t>126.7848735</t>
+  </si>
+  <si>
+    <t>126.7654706</t>
+  </si>
+  <si>
+    <t>126.7991196</t>
+  </si>
+  <si>
+    <t>126.7634128</t>
+  </si>
+  <si>
+    <t>126.7694266</t>
+  </si>
+  <si>
+    <t>126.8889420</t>
+  </si>
+  <si>
+    <t>126.9011124</t>
+  </si>
+  <si>
+    <t>126.9131168</t>
+  </si>
+  <si>
+    <t>126.9170206</t>
+  </si>
+  <si>
+    <t>126.9387573</t>
+  </si>
+  <si>
+    <t>126.9143966</t>
+  </si>
+  <si>
+    <t>127.0843739</t>
+  </si>
+  <si>
+    <t>127.0750258</t>
+  </si>
+  <si>
+    <t>127.0810497</t>
+  </si>
+  <si>
+    <t>127.2475170</t>
+  </si>
+  <si>
+    <t>127.3424854</t>
+  </si>
+  <si>
+    <t>126.8863658</t>
+  </si>
+  <si>
+    <t>126.9401940</t>
+  </si>
+  <si>
+    <t>126.9012874</t>
+  </si>
+  <si>
+    <t>126.9162589</t>
+  </si>
+  <si>
+    <t>126.8952585</t>
+  </si>
+  <si>
+    <t>126.9074211</t>
+  </si>
+  <si>
+    <t>126.8998458</t>
+  </si>
+  <si>
+    <t>126.9032071</t>
+  </si>
+  <si>
+    <t>126.9027542</t>
+  </si>
+  <si>
+    <t>126.4738897</t>
+  </si>
+  <si>
+    <t>126.4553711</t>
+  </si>
+  <si>
+    <t>126.3717267</t>
+  </si>
+  <si>
+    <t>126.3938063</t>
+  </si>
+  <si>
+    <t>126.6974186</t>
+  </si>
+  <si>
+    <t>126.4645062</t>
+  </si>
+  <si>
+    <t>126.4601739</t>
+  </si>
+  <si>
+    <t>126.6897067</t>
+  </si>
+  <si>
+    <t>126.9130110</t>
+  </si>
+  <si>
+    <t>126.9785750</t>
+  </si>
+  <si>
+    <t>126.9903565</t>
+  </si>
+  <si>
+    <t>126.9773842</t>
+  </si>
+  <si>
+    <t>126.8960122</t>
+  </si>
+  <si>
+    <t>126.9819064</t>
+  </si>
+  <si>
+    <t>126.9922113</t>
+  </si>
+  <si>
+    <t>126.8972717</t>
+  </si>
+  <si>
+    <t>126.9033679</t>
+  </si>
+  <si>
+    <t>126.8965432</t>
+  </si>
+  <si>
+    <t>126.9091215</t>
+  </si>
+  <si>
+    <t>126.9078579</t>
+  </si>
+  <si>
+    <t>126.8942581</t>
+  </si>
+  <si>
+    <t>126.9155488</t>
+  </si>
+  <si>
+    <t>126.9185392</t>
+  </si>
+  <si>
+    <t>127.2773705</t>
+  </si>
+  <si>
+    <t>127.1354362</t>
+  </si>
+  <si>
+    <t>127.1260847</t>
+  </si>
+  <si>
+    <t>127.1408048</t>
+  </si>
+  <si>
+    <t>127.2810970</t>
+  </si>
+  <si>
+    <t>127.1759030</t>
+  </si>
+  <si>
+    <t>126.8415065</t>
+  </si>
+  <si>
+    <t>126.9990825</t>
+  </si>
+  <si>
+    <t>126.9837153</t>
+  </si>
+  <si>
+    <t>126.8698934</t>
+  </si>
+  <si>
+    <t>126.8709382</t>
+  </si>
+  <si>
+    <t>126.8671946</t>
+  </si>
+  <si>
+    <t>126.8532550</t>
+  </si>
+  <si>
+    <t>126.8509312</t>
+  </si>
+  <si>
+    <t>126.8509891</t>
+  </si>
+  <si>
+    <t>126.8800383</t>
+  </si>
+  <si>
+    <t>127.1388268</t>
+  </si>
+  <si>
+    <t>127.1479372</t>
+  </si>
+  <si>
+    <t>127.1427084</t>
+  </si>
+  <si>
+    <t>127.1139272</t>
+  </si>
+  <si>
+    <t>127.1453039</t>
+  </si>
+  <si>
+    <t>126.8766262</t>
+  </si>
+  <si>
+    <t>126.8833404</t>
+  </si>
+  <si>
+    <t>126.8437590</t>
+  </si>
+  <si>
+    <t>126.8855791</t>
+  </si>
+  <si>
+    <t>126.9826602</t>
+  </si>
+  <si>
+    <t>126.9883905</t>
+  </si>
+  <si>
+    <t>126.8668384</t>
+  </si>
+  <si>
+    <t>126.8871242</t>
+  </si>
+  <si>
+    <t>126.9302854</t>
+  </si>
+  <si>
+    <t>126.8749908</t>
+  </si>
+  <si>
+    <t>126.9861136</t>
+  </si>
+  <si>
+    <t>126.8956271</t>
+  </si>
+  <si>
+    <t>126.8989734</t>
+  </si>
+  <si>
+    <t>126.8991817</t>
+  </si>
+  <si>
+    <t>126.9135828</t>
+  </si>
+  <si>
+    <t>126.9011192</t>
+  </si>
+  <si>
+    <t>126.9354301</t>
+  </si>
+  <si>
+    <t>126.9299721</t>
+  </si>
+  <si>
+    <t>126.8905376</t>
+  </si>
+  <si>
+    <t>126.9097440</t>
+  </si>
+  <si>
+    <t>126.9137406</t>
+  </si>
+  <si>
+    <t>126.9244692</t>
+  </si>
+  <si>
+    <t>126.9044267</t>
+  </si>
+  <si>
+    <t>126.9026884</t>
+  </si>
+  <si>
+    <t>126.9175888</t>
+  </si>
+  <si>
+    <t>127.3966011</t>
+  </si>
+  <si>
+    <t>127.3826884</t>
+  </si>
+  <si>
+    <t>127.3783159</t>
+  </si>
+  <si>
+    <t>127.4097024</t>
+  </si>
+  <si>
+    <t>127.4018511</t>
+  </si>
+  <si>
+    <t>127.4073171</t>
+  </si>
+  <si>
+    <t>127.3896908</t>
+  </si>
+  <si>
+    <t>127.3802354</t>
+  </si>
+  <si>
+    <t>127.6050685</t>
+  </si>
+  <si>
+    <t>127.3995677</t>
+  </si>
+  <si>
+    <t>127.3963966</t>
+  </si>
+  <si>
+    <t>127.5315701</t>
+  </si>
+  <si>
+    <t>127.3946964</t>
+  </si>
+  <si>
+    <t>127.3693261</t>
+  </si>
+  <si>
+    <t>127.3727346</t>
+  </si>
+  <si>
+    <t>127.6229732</t>
   </si>
 </sst>
 </file>
@@ -404,13 +2156,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,50 +2175,2555 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>337</v>
+      </c>
+      <c r="E38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" t="s">
+        <v>342</v>
+      </c>
+      <c r="E43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E46" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>347</v>
+      </c>
+      <c r="E48" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>349</v>
+      </c>
+      <c r="E50" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E53" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E54" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>354</v>
+      </c>
+      <c r="E55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>356</v>
+      </c>
+      <c r="E57" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>357</v>
+      </c>
+      <c r="E58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>358</v>
+      </c>
+      <c r="E59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" t="s">
+        <v>359</v>
+      </c>
+      <c r="E60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>361</v>
+      </c>
+      <c r="E62" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>362</v>
+      </c>
+      <c r="E63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" t="s">
+        <v>364</v>
+      </c>
+      <c r="E65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" t="s">
+        <v>368</v>
+      </c>
+      <c r="E69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s">
+        <v>372</v>
+      </c>
+      <c r="E73" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" t="s">
+        <v>374</v>
+      </c>
+      <c r="E75" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" t="s">
+        <v>379</v>
+      </c>
+      <c r="E83" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>380</v>
+      </c>
+      <c r="E84" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E85" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
+        <v>382</v>
+      </c>
+      <c r="E86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>383</v>
+      </c>
+      <c r="E87" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>384</v>
+      </c>
+      <c r="E88" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" t="s">
+        <v>385</v>
+      </c>
+      <c r="E89" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" t="s">
+        <v>386</v>
+      </c>
+      <c r="E90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>387</v>
+      </c>
+      <c r="E91" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" t="s">
+        <v>388</v>
+      </c>
+      <c r="E92" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" t="s">
+        <v>389</v>
+      </c>
+      <c r="E93" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>243</v>
+      </c>
+      <c r="D94" t="s">
+        <v>390</v>
+      </c>
+      <c r="E94" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" t="s">
+        <v>391</v>
+      </c>
+      <c r="E95" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>245</v>
+      </c>
+      <c r="D96" t="s">
+        <v>392</v>
+      </c>
+      <c r="E96" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" t="s">
+        <v>393</v>
+      </c>
+      <c r="E97" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" t="s">
+        <v>394</v>
+      </c>
+      <c r="E98" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>248</v>
+      </c>
+      <c r="D99" t="s">
+        <v>395</v>
+      </c>
+      <c r="E99" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>249</v>
+      </c>
+      <c r="D100" t="s">
+        <v>396</v>
+      </c>
+      <c r="E100" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" t="s">
+        <v>397</v>
+      </c>
+      <c r="E101" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>251</v>
+      </c>
+      <c r="D102" t="s">
+        <v>398</v>
+      </c>
+      <c r="E102" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" t="s">
+        <v>399</v>
+      </c>
+      <c r="E103" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>253</v>
+      </c>
+      <c r="D104" t="s">
+        <v>400</v>
+      </c>
+      <c r="E104" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" t="s">
+        <v>401</v>
+      </c>
+      <c r="E105" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" t="s">
+        <v>402</v>
+      </c>
+      <c r="E106" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" t="s">
+        <v>403</v>
+      </c>
+      <c r="E107" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>257</v>
+      </c>
+      <c r="D108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E108" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" t="s">
+        <v>405</v>
+      </c>
+      <c r="E109" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" t="s">
+        <v>406</v>
+      </c>
+      <c r="E110" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" t="s">
+        <v>407</v>
+      </c>
+      <c r="E111" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>261</v>
+      </c>
+      <c r="D112" t="s">
+        <v>408</v>
+      </c>
+      <c r="E112" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D114" t="s">
+        <v>410</v>
+      </c>
+      <c r="E114" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" t="s">
+        <v>412</v>
+      </c>
+      <c r="E116" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>266</v>
+      </c>
+      <c r="D117" t="s">
+        <v>413</v>
+      </c>
+      <c r="E117" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" t="s">
+        <v>414</v>
+      </c>
+      <c r="E118" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>268</v>
+      </c>
+      <c r="D119" t="s">
+        <v>415</v>
+      </c>
+      <c r="E119" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s">
+        <v>416</v>
+      </c>
+      <c r="E120" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" t="s">
+        <v>417</v>
+      </c>
+      <c r="E121" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" t="s">
+        <v>418</v>
+      </c>
+      <c r="E122" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>272</v>
+      </c>
+      <c r="D123" t="s">
+        <v>419</v>
+      </c>
+      <c r="E123" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>273</v>
+      </c>
+      <c r="D124" t="s">
+        <v>420</v>
+      </c>
+      <c r="E124" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>274</v>
+      </c>
+      <c r="D125" t="s">
+        <v>421</v>
+      </c>
+      <c r="E125" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" t="s">
+        <v>422</v>
+      </c>
+      <c r="E126" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" t="s">
+        <v>423</v>
+      </c>
+      <c r="E127" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" t="s">
+        <v>424</v>
+      </c>
+      <c r="E128" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129" t="s">
+        <v>425</v>
+      </c>
+      <c r="E129" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>279</v>
+      </c>
+      <c r="D130" t="s">
+        <v>426</v>
+      </c>
+      <c r="E130" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>280</v>
+      </c>
+      <c r="D131" t="s">
+        <v>427</v>
+      </c>
+      <c r="E131" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>281</v>
+      </c>
+      <c r="D132" t="s">
+        <v>428</v>
+      </c>
+      <c r="E132" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>282</v>
+      </c>
+      <c r="D133" t="s">
+        <v>429</v>
+      </c>
+      <c r="E133" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" t="s">
+        <v>430</v>
+      </c>
+      <c r="E134" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" t="s">
+        <v>431</v>
+      </c>
+      <c r="E135" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>285</v>
+      </c>
+      <c r="D136" t="s">
+        <v>432</v>
+      </c>
+      <c r="E136" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" t="s">
+        <v>433</v>
+      </c>
+      <c r="E137" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138" t="s">
+        <v>434</v>
+      </c>
+      <c r="E138" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" t="s">
+        <v>435</v>
+      </c>
+      <c r="E139" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" t="s">
+        <v>436</v>
+      </c>
+      <c r="E140" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141" t="s">
+        <v>437</v>
+      </c>
+      <c r="E141" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" t="s">
+        <v>438</v>
+      </c>
+      <c r="E142" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>292</v>
+      </c>
+      <c r="D143" t="s">
+        <v>439</v>
+      </c>
+      <c r="E143" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>293</v>
+      </c>
+      <c r="D144" t="s">
+        <v>440</v>
+      </c>
+      <c r="E144" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145" t="s">
+        <v>441</v>
+      </c>
+      <c r="E145" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>295</v>
+      </c>
+      <c r="D146" t="s">
+        <v>442</v>
+      </c>
+      <c r="E146" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>296</v>
+      </c>
+      <c r="D147" t="s">
+        <v>443</v>
+      </c>
+      <c r="E147" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>297</v>
+      </c>
+      <c r="D148" t="s">
+        <v>444</v>
+      </c>
+      <c r="E148" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>298</v>
+      </c>
+      <c r="D149" t="s">
+        <v>445</v>
+      </c>
+      <c r="E149" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>299</v>
+      </c>
+      <c r="D150" t="s">
+        <v>446</v>
+      </c>
+      <c r="E150" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" t="s">
+        <v>447</v>
+      </c>
+      <c r="E151" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
